--- a/architecture_results.xlsx
+++ b/architecture_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Daniel/Documents/GitHub/Digits_NN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4FA489-0820-1048-ABBB-D9562C8907F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF143C5D-4F0D-2D4A-A0F5-ABA13B6F4889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,7 +400,7 @@
   <dimension ref="A1:D501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
